--- a/機械設計/_BOM/CU-SAS001.xlsx
+++ b/機械設計/_BOM/CU-SAS001.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GitHub\2022-KawasakiRobot\機械設計\_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{269D4ADE-3D60-40AB-ACEE-C1C9E957B32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA3D1C0F-CC7B-4ECC-A730-AF7B4B06CFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17970" yWindow="-2220" windowWidth="14400" windowHeight="10845" xr2:uid="{08476555-A485-4E7C-B6CC-15FA73319EA9}"/>
+    <workbookView xWindow="42120" yWindow="6870" windowWidth="14400" windowHeight="10845" xr2:uid="{0A0F23D6-CD92-4987-969C-343428946E2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{E96CD0D7-4661-4A97-BAF0-2D618F105B3B}" mergeInterval="0" personalView="1" xWindow="-1198" yWindow="-148" windowWidth="960" windowHeight="723" activeSheetId="1"/>
+    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{0D7EEF7B-59C6-4CD3-9082-221D1D8C2323}" mergeInterval="0" personalView="1" xWindow="2808" yWindow="458" windowWidth="960" windowHeight="723" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="66">
   <si>
     <t>種類</t>
   </si>
@@ -98,6 +98,24 @@
     <t>社内加工品</t>
   </si>
   <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>CU-P002</t>
+  </si>
+  <si>
+    <t>足駆動回路放熱板</t>
+  </si>
+  <si>
+    <t>A2017</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>CU-SAS001</t>
   </si>
   <si>
@@ -107,12 +125,6 @@
     <t>中央フレーム</t>
   </si>
   <si>
-    <t>A2017</t>
-  </si>
-  <si>
-    <t>無</t>
-  </si>
-  <si>
     <t>CU-SAS001-P002</t>
   </si>
   <si>
@@ -125,9 +137,42 @@
     <t>中央ユニット主軸</t>
   </si>
   <si>
+    <t>自社製品</t>
+  </si>
+  <si>
+    <t>右足駆動回路v2</t>
+  </si>
+  <si>
+    <t>未指定</t>
+  </si>
+  <si>
+    <t>左足駆動回路v2</t>
+  </si>
+  <si>
+    <t>電子回路ユニット</t>
+  </si>
+  <si>
+    <t>材料 &lt;指定なし&gt;</t>
+  </si>
+  <si>
+    <t>組立品(組図を参照)</t>
+  </si>
+  <si>
     <t>購入品</t>
   </si>
   <si>
+    <t>廣杉計器</t>
+  </si>
+  <si>
+    <t>BRL-2011SBE</t>
+  </si>
+  <si>
+    <t>スペーサー</t>
+  </si>
+  <si>
+    <t>BRL-311SBE</t>
+  </si>
+  <si>
     <t>MISUMI</t>
   </si>
   <si>
@@ -146,12 +191,18 @@
     <t>VUR16-55</t>
   </si>
   <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>小型ファン</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
     <t>CFS0.4</t>
   </si>
   <si>
-    <t>材料 &lt;指定なし&gt;</t>
-  </si>
-  <si>
     <t>定荷重ばね</t>
   </si>
   <si>
@@ -164,13 +215,28 @@
     <t>超極低頭ﾎﾞﾙﾄ</t>
   </si>
   <si>
-    <t>ボルト類</t>
-  </si>
-  <si>
-    <t>六角穴付きボルト M3x8</t>
-  </si>
-  <si>
-    <t>スチール</t>
+    <t>CBSTBR2-5</t>
+  </si>
+  <si>
+    <t>CBSTBR3-10</t>
+  </si>
+  <si>
+    <t>CBSTSR4-8</t>
+  </si>
+  <si>
+    <t>SUS304相当</t>
+  </si>
+  <si>
+    <t>組立品</t>
+  </si>
+  <si>
+    <t>CU001</t>
+  </si>
+  <si>
+    <t>CU-SAS003</t>
+  </si>
+  <si>
+    <t>展開機構</t>
   </si>
 </sst>
 </file>
@@ -254,8 +320,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{29312CBF-8AE8-4574-A752-6BF80AB5DEA3}">
-  <header guid="{29312CBF-8AE8-4574-A752-6BF80AB5DEA3}" dateTime="2023-07-13T15:40:05" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{040214F8-16D8-42E0-A912-60C950DDCE54}">
+  <header guid="{040214F8-16D8-42E0-A912-60C950DDCE54}" dateTime="2023-07-16T16:42:33" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -567,8 +633,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106DA0A6-BCD8-4E01-89C2-A9723602271D}">
-  <dimension ref="A1:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCE753D-86A0-4064-B230-E82F8EACC76A}">
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,12 +643,11 @@
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
@@ -684,37 +749,45 @@
       <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -736,24 +809,24 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -772,34 +845,32 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="3">
-        <v>899</v>
-      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="1" t="s">
         <v>23</v>
       </c>
@@ -813,118 +884,114 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="3">
-        <v>535</v>
-      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1880</v>
-      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="1">
-        <v>4</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="3">
-        <v>280</v>
-      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="1" t="s">
         <v>23</v>
       </c>
@@ -938,38 +1005,478 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>7</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="3">
+        <v>899</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="3">
+        <v>535</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1880</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="3">
+        <v>280</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="1">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="3">
+        <v>260</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="3">
+        <v>280</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="3">
+        <v>280</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E96CD0D7-4661-4A97-BAF0-2D618F105B3B}">
+    <customSheetView guid="{0D7EEF7B-59C6-4CD3-9082-221D1D8C2323}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
